--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,42 @@
   </si>
   <si>
     <t>8m 4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.java.calculation.exact.sendv.BaselineFreqImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m47s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk20e4coef.txt   /share/flink/tmp/freqs/basicsk20e4coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 10 0.0001 /share/flink/tmp/basicsk20e4coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13m42s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk20e4coeffreq.txt  /share/flink/tmp/basicsk20e4sse.txt </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,6 +306,180 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CFABC9-A94D-44CA-9205-C1575BCB1FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="17191" t="51727" r="2801" b="8326"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="4066530"/>
+          <a:ext cx="8902700" cy="2816869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F96F48-CAA3-4361-8BCE-BD74542B31A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="15914" t="46781" r="3263" b="8554"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6946900"/>
+          <a:ext cx="8191500" cy="2546350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>102905</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>69339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4522B05A-0B62-4880-8D36-8A8BED716475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="9291076"/>
+          <a:ext cx="10529605" cy="2868663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404590</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>148779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54C8811-2413-4BE0-9E0F-5E56F51A6A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="12446272"/>
+          <a:ext cx="9250140" cy="2282107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -311,6 +521,50 @@
         <a:xfrm>
           <a:off x="31750" y="1498600"/>
           <a:ext cx="8983407" cy="2158803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>149247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83871</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD05E255-334B-4940-9271-266B60F7A115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="5127647"/>
+          <a:ext cx="8764321" cy="2234704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,10 +981,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -758,7 +1104,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -775,86 +1121,6 @@
       </c>
       <c r="B4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.58203125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -971,6 +1237,79 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
-    <sheet name="send-coef" sheetId="4" r:id="rId2"/>
-    <sheet name="basic sampling" sheetId="1" r:id="rId3"/>
-    <sheet name="improved sampling" sheetId="2" r:id="rId4"/>
-    <sheet name="twolevel sampling" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="send-coef" sheetId="4" r:id="rId3"/>
+    <sheet name="basic sampling" sheetId="1" r:id="rId4"/>
+    <sheet name="improved sampling" sheetId="2" r:id="rId5"/>
+    <sheet name="twolevel sampling" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="69">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendcoefk10e4coef.txt   /share/flink/tmp/freqs/sendcoefk10e4coeffreq.txt </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk10e4coef.txt   /share/flink/tmp/freqs/improvedsk10e4coeffreq.txt </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 10 0.0001 /share/flink/tmp/sendcoefsk10e4coef.txt </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk10e4coeffreq.txt  /share/flink/tmp/basicsk10e4sse.txt </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main.java.calculation.exact.sendcoef.BaselineImpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8m 4s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>main.java.calculation.exact.sendv.BaselineFreqImpl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,15 +174,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 10 0.0001 /share/flink/tmp/basicsk20e4coef.txt </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13m42s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk20e4coeffreq.txt  /share/flink/tmp/basicsk20e4sse.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 20 0.0001 /share/flink/tmp/basicsk20e4coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 30 0.0001 /share/flink/tmp/basicsk30e4coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e4coef.txt   /share/flink/tmp/freqs/basicsk30e4coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e4coeffreq.txt  /share/flink/tmp/basicsk30e4sse.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk40e4coef.txt   /share/flink/tmp/freqs/basicsk40e4coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk40e4coeffreq.txt  /share/flink/tmp/basicsk40e4sse.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 40 0.0001 /share/flink/tmp/basicsk40e4coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 20  /share/flink/tmp/sendvk20coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendvk20coef.txt   /share/flink/tmp/freqs/sendvk20coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 30  /share/flink/tmp/sendvk30coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendvk30coef.txt   /share/flink/tmp/freqs/sendvk30coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 40  /share/flink/tmp/sendvk40coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendvk40coef.txt   /share/flink/tmp/freqs/sendvk40coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 50  /share/flink/tmp/sendvk50coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendvk50coef.txt   /share/flink/tmp/freqs/sendvk50coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk50e4coef.txt   /share/flink/tmp/freqs/basicsk50e4coeffreq.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk50e4coeffreq.txt  /share/flink/tmp/basicsk50e4sse.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(10^-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improveds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/share/flink/tmp/dataset245.txt 50 0.0001 /share/flink/tmp/basicsk50e4coef.txt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m37s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m14s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,15 +366,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>159086</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1362</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642712</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5789</xdr:rowOff>
+      <xdr:rowOff>31189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -296,7 +397,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63500" y="1225886"/>
+          <a:off x="44450" y="1251286"/>
           <a:ext cx="9297762" cy="2869303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -309,15 +410,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>154930</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -339,8 +440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="101600" y="4066530"/>
-          <a:ext cx="8902700" cy="2816869"/>
+          <a:off x="0" y="5527402"/>
+          <a:ext cx="8299450" cy="2625997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -353,14 +454,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>91117</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,8 +483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6946900"/>
-          <a:ext cx="8191500" cy="2546350"/>
+          <a:off x="0" y="9632950"/>
+          <a:ext cx="8130217" cy="2463800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -395,15 +496,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>45476</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>102905</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>69339</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115605</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>82039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,8 +527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="9291076"/>
-          <a:ext cx="10529605" cy="2868663"/>
+          <a:off x="0" y="13324753"/>
+          <a:ext cx="9475505" cy="2581486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -439,15 +540,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>272</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>118938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>404590</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>148779</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429990</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>59879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -470,8 +571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="12446272"/>
-          <a:ext cx="9250140" cy="2282107"/>
+          <a:off x="0" y="17365538"/>
+          <a:ext cx="9129490" cy="2252341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,6 +674,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263312</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9235D4-AA4A-47EC-BB8A-F1E6F602ABFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8940800"/>
+          <a:ext cx="9623212" cy="2269683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>16620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239635</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>2745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEDA645-9AFD-442E-8C9A-E282A87B068C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12818220"/>
+          <a:ext cx="8278735" cy="1941925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>299802</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>34467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405A75E5-DA3D-49C3-A227-A1A6F9703F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8337550" y="12810410"/>
+          <a:ext cx="8586552" cy="2159257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>12539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221600</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>98007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4BBA4A-9BC6-46C2-B4BF-E2BD09CDF0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16192339"/>
+          <a:ext cx="8921100" cy="2041268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -587,7 +864,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>362747</xdr:colOff>
+      <xdr:colOff>267497</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>132931</xdr:rowOff>
     </xdr:to>
@@ -626,14 +903,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>43429</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>487100</xdr:colOff>
+      <xdr:colOff>17200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>113795</xdr:rowOff>
+      <xdr:rowOff>126494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -656,8 +933,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9042400" y="1288029"/>
-          <a:ext cx="8729400" cy="2381766"/>
+          <a:off x="9137650" y="1428937"/>
+          <a:ext cx="8259500" cy="2253557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>531574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B396AC-9737-450C-8007-4AE92D6114D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5002294"/>
+          <a:ext cx="7345124" cy="1963168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582378</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>170967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1282196-C9D4-45DD-85DE-7C915D8BB3B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8523343"/>
+          <a:ext cx="8056328" cy="2137824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379221</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>120183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3BE865-0BCD-40C8-ACFC-200750C62B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12142423"/>
+          <a:ext cx="7853171" cy="2023960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>10599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655397</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>18605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2283B2-FF13-4637-9C14-A62CE617BB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15656999"/>
+          <a:ext cx="8789747" cy="2141606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,6 +1160,50 @@
         <a:xfrm>
           <a:off x="50800" y="1629731"/>
           <a:ext cx="9259605" cy="2563926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>20758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>512545</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B0E015-DB07-499F-8145-030B06638B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5710358"/>
+          <a:ext cx="7891245" cy="1915553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -993,18 +1490,21 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1023,15 +1523,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1039,29 +1539,309 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1741399872</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e4coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk10e4coeffreq.txt  /share/flink/tmp/sendvk10sse.txt </v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk20coeffreq.txt  /share/flink/tmp/sendvk20sse.txt </v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>988476352</v>
+      </c>
+      <c r="E54" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C48,0)&amp;"k"&amp;TEXT(B50,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C48,0)&amp;"k"&amp;TEXT(B50,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk30coeffreq.txt  /share/flink/tmp/sendvk30sse.txt </v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>956279786</v>
+      </c>
+      <c r="E75" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C69,0)&amp;"k"&amp;TEXT(B71,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C69,0)&amp;"k"&amp;TEXT(B71,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk40coeffreq.txt  /share/flink/tmp/sendvk40sse.txt </v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>40</v>
+      </c>
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C91,0)&amp;"k"&amp;TEXT(B93,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C91,0)&amp;"k"&amp;TEXT(B93,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk50coeffreq.txt  /share/flink/tmp/sendvk50sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -1073,10 +1853,1015 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendvk50coef.txt   /share/flink/tmp/freqs/sendvk50coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"/share/flink/tmp/dataset245.txt 50  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 50  /share/flink/tmp/sendvk50coef.txt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk50coeffreq.txt  /share/flink/tmp/sendvk50sse.txt </v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk20e4coef.txt   /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>POWER(0.1,B13)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B12,0)&amp;"  "&amp;TEXT(POWER(0.1,B13),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 20  0.00010 /share/flink/tmp/improvedsk20e4coef.txt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt  /share/flink/tmp/improvedsk20e4sse.txt </v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1741399872</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="D86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>POWER(0.1,B4)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B4,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B4,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk10e4coeffreq.txt  /share/flink/tmp/improvedsk10e4sse.txt </v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk20e4coef.txt   /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f>POWER(0.1,B24)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B23,0)&amp;"  "&amp;TEXT(POWER(0.1,B24),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 20  0.00010 /share/flink/tmp/improvedsk20e4coef.txt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt  /share/flink/tmp/improvedsk20e4sse.txt </v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e4coef.txt   /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>POWER(0.1,B44)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B43,0)&amp;"  "&amp;TEXT(POWER(0.1,B44),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.00010 /share/flink/tmp/improvedsk30e4coef.txt</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt  /share/flink/tmp/improvedsk30e4sse.txt </v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>40</v>
+      </c>
+      <c r="D62" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk40e4coef.txt   /share/flink/tmp/freqs/improvedsk40e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <f>POWER(0.1,B64)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B63,0)&amp;"  "&amp;TEXT(POWER(0.1,B64),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 40  0.00010 /share/flink/tmp/improvedsk40e4coef.txt</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk40e4coeffreq.txt  /share/flink/tmp/improvedsk40e4sse.txt </v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="D82" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk50e4coef.txt   /share/flink/tmp/freqs/improvedsk50e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <f>POWER(0.1,B84)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B83,0)&amp;"  "&amp;TEXT(POWER(0.1,B84),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 50  0.00010 /share/flink/tmp/improvedsk50e4coef.txt</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk50e4coeffreq.txt  /share/flink/tmp/improvedsk50e4sse.txt </v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1092,9 +2877,6 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1104,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,342 +2896,8 @@
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.58203125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1741399872</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.58203125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.58203125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,12 +2937,175 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="D26" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk20e4coef.txt   /share/flink/tmp/freqs/twosk20e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f>POWER(0.1,B28)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B27,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B28),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 20  40 0.00010 /share/flink/tmp/twosk20e4coef.txt</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk20e4coeffreq.txt  /share/flink/tmp/twosk20e4sse.txt </v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="D45" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e4coef.txt   /share/flink/tmp/freqs/twosk30e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <f>POWER(0.1,B47)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B46,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B47),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.00010 /share/flink/tmp/twosk30e4coef.txt</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e4coeffreq.txt  /share/flink/tmp/twosk30e4sse.txt </v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="74">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>main.java.calculation.exact.sendcoef.BaselineImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>main.java.calculation.exact.sendv.BaselineFreqImpl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +270,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>basics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>improveds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +307,18 @@
   </si>
   <si>
     <t>twos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendcoef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11m8s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,6 +609,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89771</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5F2394-2ABD-40D4-A1AA-1EF62E09C00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1236653"/>
+          <a:ext cx="7468471" cy="2655242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -853,7 +922,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1122,7 +1191,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1204,6 +1273,94 @@
         <a:xfrm>
           <a:off x="0" y="5710358"/>
           <a:ext cx="7891245" cy="1915553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96026</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DCE03A-CB2B-47D0-9F43-0CDEFE017182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9086850"/>
+          <a:ext cx="10116326" cy="2479231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>37211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477602</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>170960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FB2A49-A8EE-44A6-BAEF-6A0B86669B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="13194411"/>
+          <a:ext cx="7138752" cy="1911749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -1528,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1741399872</v>
+        <v>700062878179</v>
       </c>
       <c r="E7" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e4coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"sse.txt "</f>
@@ -1570,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1584,7 +1741,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1608,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1616,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -1626,6 +1783,9 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
+      <c r="B31">
+        <v>583796393311</v>
+      </c>
       <c r="E31" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk20coeffreq.txt  /share/flink/tmp/sendvk20sse.txt </v>
@@ -1639,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -1653,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1677,7 +1837,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1685,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -1696,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>988476352</v>
+        <v>572219126720</v>
       </c>
       <c r="E54" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C48,0)&amp;"k"&amp;TEXT(B50,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C48,0)&amp;"k"&amp;TEXT(B50,0)&amp;"sse.txt "</f>
@@ -1711,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -1725,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1741,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,7 +1909,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
@@ -1768,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>956279786</v>
+        <v>550712093674</v>
       </c>
       <c r="E75" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C69,0)&amp;"k"&amp;TEXT(B71,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C69,0)&amp;"k"&amp;TEXT(B71,0)&amp;"sse.txt "</f>
@@ -1783,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -1797,7 +1957,7 @@
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -1813,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -1821,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -1829,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E96" t="s">
         <v>25</v>
@@ -1838,6 +1998,9 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
+      </c>
+      <c r="B97">
+        <v>544444457240</v>
       </c>
       <c r="E97" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C91,0)&amp;"k"&amp;TEXT(B93,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C91,0)&amp;"k"&amp;TEXT(B93,0)&amp;"sse.txt "</f>
@@ -1856,7 +2019,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1870,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -1906,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="str">
-        <f>"/share/flink/tmp/dataset245.txt 50  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt"</f>
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B3,0)&amp;"  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 50  /share/flink/tmp/sendvk50coef.txt</v>
       </c>
     </row>
@@ -1932,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1947,7 +2110,7 @@
       </c>
       <c r="D11" t="str">
         <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk20e4coef.txt   /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt</v>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e4coef.txt   /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1955,12 +2118,12 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1981,7 +2144,7 @@
       </c>
       <c r="B15" t="str">
         <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B12,0)&amp;"  "&amp;TEXT(POWER(0.1,B13),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 20  0.00010 /share/flink/tmp/improvedsk20e4coef.txt</v>
+        <v>/share/flink/tmp/dataset245.txt 30  0.00010 /share/flink/tmp/improvedsk30e4coef.txt</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1998,7 +2161,7 @@
       </c>
       <c r="E17" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C10,0)&amp;"k"&amp;TEXT(B12,0)&amp;"e"&amp;TEXT(B13,0)&amp;"sse.txt "</f>
-        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt  /share/flink/tmp/improvedsk20e4sse.txt </v>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt  /share/flink/tmp/improvedsk30e4sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -2009,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2020,18 +2183,88 @@
     <col min="1" max="1" width="31.58203125" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendcoefk10coef.txt   /share/flink/tmp/freqs/sendcoefk10coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B3,0)&amp;"  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt 2"</f>
+        <v>/share/flink/tmp/dataset245.txt 10  /share/flink/tmp/sendcoefk10coef.txt 2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendcoefk10coeffreq.txt  /share/flink/tmp/sendcoefk10sse.txt </v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2109,9 +2342,6 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1741399872</v>
-      </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2167,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2175,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -2186,7 +2416,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2216,7 +2446,7 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2240,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -2259,7 +2489,7 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2289,7 +2519,7 @@
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2313,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2321,10 +2551,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E71" t="s">
         <v>25</v>
@@ -2335,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2365,7 +2595,7 @@
         <v>50</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2389,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2405,10 +2635,87 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="D105" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e1coef.txt   /share/flink/tmp/freqs/basicsk30e1coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>60</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <f>POWER(0.1,B107)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B106,0)&amp;"  "&amp;TEXT(POWER(0.1,B107),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.10000 /share/flink/tmp/basicsk30e1coef.txt</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e1coeffreq.txt  /share/flink/tmp/basicsk30e1sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -2420,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2441,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2468,7 +2775,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2502,7 +2809,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -2525,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -2553,7 +2860,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -2585,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -2608,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -2636,7 +2943,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2668,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -2691,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -2719,7 +3026,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -2751,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
@@ -2774,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -2802,7 +3109,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -2834,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E87" t="s">
         <v>25</v>
@@ -2847,6 +3154,83 @@
       <c r="E88" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk50e4coeffreq.txt  /share/flink/tmp/improvedsk50e4sse.txt </v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>40</v>
+      </c>
+      <c r="D103" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e1coef.txt   /share/flink/tmp/freqs/improvedsk30e1coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <f>POWER(0.1,B105)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B104,0)&amp;"  "&amp;TEXT(POWER(0.1,B105),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.10000 /share/flink/tmp/improvedsk30e1coef.txt</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e1coeffreq.txt  /share/flink/tmp/improvedsk30e1sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -2858,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2870,15 +3254,18 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +3276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2900,7 +3287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2908,15 +3295,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>POWER(0.1,B5)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +3315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2932,17 +3323,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
+      </c>
+      <c r="B9">
+        <v>700911821068</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B5,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B5,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk10e4coeffreq.txt  /share/flink/tmp/twosk10e4sse.txt </v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2953,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -2981,7 +3382,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -3013,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -3036,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -3064,7 +3465,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -3095,6 +3496,9 @@
       <c r="A50" t="s">
         <v>10</v>
       </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
       <c r="E50" t="s">
         <v>25</v>
       </c>
@@ -3106,6 +3510,169 @@
       <c r="E51" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e4coeffreq.txt  /share/flink/tmp/twosk30e4sse.txt </v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="D68" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk40e4coef.txt   /share/flink/tmp/freqs/twosk40e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <f>POWER(0.1,B70)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B69,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B70),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 40  40 0.00010 /share/flink/tmp/twosk40e4coef.txt</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk40e4coeffreq.txt  /share/flink/tmp/twosk40e4sse.txt </v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>40</v>
+      </c>
+      <c r="D87" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk50e4coef.txt   /share/flink/tmp/freqs/twosk50e4coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f>POWER(0.1,B89)</f>
+        <v>1.0000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B88,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B89),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 50  40 0.00010 /share/flink/tmp/twosk50e4coef.txt</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk50e4coeffreq.txt  /share/flink/tmp/twosk50e4sse.txt </v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="77">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>11m8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m29s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5m55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m26s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,13 +399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>6686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>642712</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>31189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -431,13 +443,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>15602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -474,13 +486,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>91117</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -517,13 +529,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>167553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>115605</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>82039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -561,13 +573,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>118938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>429990</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>59879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -601,6 +613,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>639574</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2F9B4A-6312-4EF3-BB34-18FF6DAE63DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="0"/>
+          <a:ext cx="8634224" cy="2112259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -610,13 +666,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>169853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>89771</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>158095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -650,6 +706,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528390</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611E4091-1943-4D40-880E-48BDF3E32D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="0"/>
+          <a:ext cx="14422190" cy="2161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -659,13 +759,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>315657</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>101403</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -703,13 +803,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>149247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>83871</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>72551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -747,13 +847,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>263312</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -791,13 +891,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>16620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>239635</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -835,13 +935,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>8810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>299802</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>34467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -879,13 +979,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>221600</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>98007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -919,6 +1019,199 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>59751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23583</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4F0203-762D-4B23-9E9F-A16BC0D42566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19795551"/>
+          <a:ext cx="8062683" cy="1981328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83859</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>110699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A87941-7E6E-47E5-B313-97EC7B69E20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23329895"/>
+          <a:ext cx="8122959" cy="1850604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>27643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347424</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>5892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B741C28-A398-4885-8574-843F5737FF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26697643"/>
+          <a:ext cx="7726124" cy="1934049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="https://lh4.googleusercontent.com/0IoX-QSkOeG5jTGim27EZrzf8fl6deEBM5EfiUwEmDnpEI8upgJPo_0TbBWgncNVGbh0BY_pF-sK0CpurFdEwTN1vlKoWZVvk2TyCXHcVgny48IqI-J1KfELC5TyHgZ_SjhLwUuQeTE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EE826F-2476-46F7-A158-1938973898CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14363700" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -928,13 +1221,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>267497</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>132931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -972,13 +1265,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>6537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>17200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>126494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1016,13 +1309,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>23894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>531574</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>31262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1060,13 +1353,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>166743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>582378</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>170967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1104,13 +1397,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>52023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>379221</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>120183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1148,13 +1441,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>10599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>655397</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>18605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1188,6 +1481,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2869E97-C33B-4630-A13F-FAA6F60910CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="152400"/>
+          <a:ext cx="13400000" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1197,13 +1534,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>29531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>610905</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1241,13 +1578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>20758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>512545</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>158311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1285,13 +1622,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>96026</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>9081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1329,13 +1666,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>37211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>477602</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>170960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,6 +1698,94 @@
         <a:xfrm>
           <a:off x="57150" y="13194411"/>
           <a:ext cx="7138752" cy="1911749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>15857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166417</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>151929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9703F187-2116-4DA8-AFE9-1A87C415569E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16551257"/>
+          <a:ext cx="7545117" cy="1914072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>96752</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A579BD0-E417-4D10-BDCA-8DC0370D5A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="133350"/>
+          <a:ext cx="13380952" cy="1495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A13:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1647,370 +2072,371 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B14">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B19">
         <v>700062878179</v>
       </c>
-      <c r="E7" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e4coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"sse.txt "</f>
+      <c r="E19" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e4coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk10e4coeffreq.txt  /share/flink/tmp/sendvk10sse.txt </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C37" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B38">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D38" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B39">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B31">
+      <c r="B43">
         <v>583796393311</v>
       </c>
-      <c r="E31" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"sse.txt "</f>
+      <c r="E43" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk20coeffreq.txt  /share/flink/tmp/sendvk20sse.txt </v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C60" t="s">
         <v>56</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B49">
+      <c r="B61">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B50">
+      <c r="B62">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>15</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B64" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B65" t="s">
         <v>34</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B54">
+      <c r="B66">
         <v>572219126720</v>
       </c>
-      <c r="E54" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C48,0)&amp;"k"&amp;TEXT(B50,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C48,0)&amp;"k"&amp;TEXT(B50,0)&amp;"sse.txt "</f>
+      <c r="E66" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C60,0)&amp;"k"&amp;TEXT(B62,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C60,0)&amp;"k"&amp;TEXT(B62,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk30coeffreq.txt  /share/flink/tmp/sendvk30sse.txt </v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>9</v>
       </c>
-      <c r="B69">
+      <c r="B81">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C81" t="s">
         <v>56</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D81" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>0</v>
       </c>
-      <c r="B70">
+      <c r="B82">
         <v>40</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B71">
+      <c r="B83">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>15</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B85" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B86" t="s">
         <v>35</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>14</v>
       </c>
-      <c r="B75">
+      <c r="B87">
         <v>550712093674</v>
       </c>
-      <c r="E75" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C69,0)&amp;"k"&amp;TEXT(B71,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C69,0)&amp;"k"&amp;TEXT(B71,0)&amp;"sse.txt "</f>
+      <c r="E87" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk40coeffreq.txt  /share/flink/tmp/sendvk40sse.txt </v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>9</v>
       </c>
-      <c r="B91">
+      <c r="B103">
         <v>5</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C103" t="s">
         <v>56</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="B92">
+      <c r="B104">
         <v>40</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D104" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>4</v>
       </c>
-      <c r="B93">
+      <c r="B105">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>2</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B106" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>15</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B107" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>10</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B108" t="s">
         <v>36</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>14</v>
       </c>
-      <c r="B97">
+      <c r="B109">
         <v>544444457240</v>
       </c>
-      <c r="E97" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C91,0)&amp;"k"&amp;TEXT(B93,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C91,0)&amp;"k"&amp;TEXT(B93,0)&amp;"sse.txt "</f>
+      <c r="E109" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C103,0)&amp;"k"&amp;TEXT(B105,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C103,0)&amp;"k"&amp;TEXT(B105,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendvk50coeffreq.txt  /share/flink/tmp/sendvk50sse.txt </v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2172,11 +2598,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A13:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2184,71 +2608,71 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B14">
         <v>40</v>
       </c>
-      <c r="D2" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coeffreq.txt"</f>
+      <c r="D14" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/sendcoefk10coef.txt   /share/flink/tmp/freqs/sendcoefk10coeffreq.txt</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B3,0)&amp;"  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coef.txt 2"</f>
+      <c r="B17" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B15,0)&amp;"  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"coef.txt 2"</f>
         <v>/share/flink/tmp/dataset245.txt 10  /share/flink/tmp/sendcoefk10coef.txt 2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"sse.txt "</f>
+      <c r="E19" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/sendcoefk10coeffreq.txt  /share/flink/tmp/sendcoefk10sse.txt </v>
       </c>
     </row>
@@ -2261,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A14:E182"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2273,449 +2697,698 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B1">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B15">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B22">
+      <c r="B35">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B36">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B37">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
-      <c r="B43">
+      <c r="B56">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>0</v>
       </c>
-      <c r="B44">
+      <c r="B57">
         <v>40</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B45">
+      <c r="B58">
         <v>30</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>8</v>
       </c>
-      <c r="B65">
+      <c r="B78">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B66">
+      <c r="B79">
         <v>40</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D79" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>4</v>
       </c>
-      <c r="B67">
+      <c r="B80">
         <v>40</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>5</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>2</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>1</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B83" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>0</v>
       </c>
-      <c r="B85">
+      <c r="B98">
         <v>40</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D98" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>4</v>
       </c>
-      <c r="B86">
+      <c r="B99">
         <v>50</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>2</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B101" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B102" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>10</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E103" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E91" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>9</v>
       </c>
-      <c r="B104">
+      <c r="B117">
         <v>6</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C117" t="s">
         <v>61</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D117" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>0</v>
       </c>
-      <c r="B105">
+      <c r="B118">
         <v>40</v>
       </c>
-      <c r="D105" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coeffreq.txt"</f>
+      <c r="D118" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e1coef.txt   /share/flink/tmp/freqs/basicsk30e1coeffreq.txt</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>4</v>
       </c>
-      <c r="B106">
+      <c r="B119">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>60</v>
       </c>
-      <c r="B107">
+      <c r="B120">
         <v>1</v>
       </c>
-      <c r="C107">
-        <f>POWER(0.1,B107)</f>
+      <c r="C120">
+        <f>POWER(0.1,B120)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>1</v>
       </c>
-      <c r="B109" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B106,0)&amp;"  "&amp;TEXT(POWER(0.1,B107),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coef.txt"</f>
+      <c r="B122" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B119,0)&amp;"  "&amp;TEXT(POWER(0.1,B120),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 30  0.10000 /share/flink/tmp/basicsk30e1coef.txt</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>10</v>
       </c>
-      <c r="E110" t="s">
+      <c r="B123" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>14</v>
       </c>
-      <c r="E111" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C104,0)&amp;"k"&amp;TEXT(B106,0)&amp;"e"&amp;TEXT(B107,0)&amp;"sse.txt "</f>
+      <c r="E124" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e1coeffreq.txt  /share/flink/tmp/basicsk30e1sse.txt </v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>40</v>
+      </c>
+      <c r="D138" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e2coef.txt   /share/flink/tmp/freqs/basicsk30e2coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <f>POWER(0.1,B140)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B139,0)&amp;"  "&amp;TEXT(POWER(0.1,B140),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.01000 /share/flink/tmp/basicsk30e2coef.txt</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>76</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e2coeffreq.txt  /share/flink/tmp/basicsk30e2sse.txt </v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="D157" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e3coef.txt   /share/flink/tmp/freqs/basicsk30e3coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <f>POWER(0.1,B159)</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B158,0)&amp;"  "&amp;TEXT(POWER(0.1,B159),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.00100 /share/flink/tmp/basicsk30e3coef.txt</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e3coeffreq.txt  /share/flink/tmp/basicsk30e3sse.txt </v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>61</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>40</v>
+      </c>
+      <c r="D176" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e5coef.txt   /share/flink/tmp/freqs/basicsk30e5coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>60</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <f>POWER(0.1,B178)</f>
+        <v>1.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B177,0)&amp;"  "&amp;TEXT(POWER(0.1,B178),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.00001 /share/flink/tmp/basicsk30e5coef.txt</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e5coeffreq.txt  /share/flink/tmp/basicsk30e5sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -2727,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A13:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2740,496 +3413,499 @@
     <col min="3" max="3" width="9.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B14">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C4">
-        <f>POWER(0.1,B4)</f>
+      <c r="C16">
+        <f>POWER(0.1,B16)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B4,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B4,0)&amp;"sse.txt "</f>
+      <c r="E20" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B16,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B16,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk10e4coeffreq.txt  /share/flink/tmp/improvedsk10e4sse.txt </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
+      <c r="B34">
         <v>40</v>
       </c>
-      <c r="D22" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coeffreq.txt"</f>
+      <c r="D34" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk20e4coef.txt   /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B35">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B24">
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="C24">
-        <f>POWER(0.1,B24)</f>
+      <c r="C36">
+        <f>POWER(0.1,B36)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B26" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B23,0)&amp;"  "&amp;TEXT(POWER(0.1,B24),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coef.txt"</f>
+      <c r="B38" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B35,0)&amp;"  "&amp;TEXT(POWER(0.1,B36),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 20  0.00010 /share/flink/tmp/improvedsk20e4coef.txt</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C21,0)&amp;"k"&amp;TEXT(B23,0)&amp;"e"&amp;TEXT(B24,0)&amp;"sse.txt "</f>
+      <c r="E40" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt  /share/flink/tmp/improvedsk20e4sse.txt </v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="B53">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C53" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>0</v>
       </c>
-      <c r="B42">
+      <c r="B54">
         <v>40</v>
       </c>
-      <c r="D42" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coeffreq.txt"</f>
+      <c r="D54" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e4coef.txt   /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B43">
+      <c r="B55">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B44">
+      <c r="B56">
         <v>4</v>
       </c>
-      <c r="C44">
-        <f>POWER(0.1,B44)</f>
+      <c r="C56">
+        <f>POWER(0.1,B56)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>1</v>
       </c>
-      <c r="B46" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B43,0)&amp;"  "&amp;TEXT(POWER(0.1,B44),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coef.txt"</f>
+      <c r="B58" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B55,0)&amp;"  "&amp;TEXT(POWER(0.1,B56),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 30  0.00010 /share/flink/tmp/improvedsk30e4coef.txt</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>14</v>
       </c>
-      <c r="E48" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C41,0)&amp;"k"&amp;TEXT(B43,0)&amp;"e"&amp;TEXT(B44,0)&amp;"sse.txt "</f>
+      <c r="E60" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt  /share/flink/tmp/improvedsk30e4sse.txt </v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="B73">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C73" t="s">
         <v>62</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B62">
+      <c r="B74">
         <v>40</v>
       </c>
-      <c r="D62" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coeffreq.txt"</f>
+      <c r="D74" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk40e4coef.txt   /share/flink/tmp/freqs/improvedsk40e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>4</v>
       </c>
-      <c r="B63">
+      <c r="B75">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>60</v>
       </c>
-      <c r="B64">
+      <c r="B76">
         <v>4</v>
       </c>
-      <c r="C64">
-        <f>POWER(0.1,B64)</f>
+      <c r="C76">
+        <f>POWER(0.1,B76)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>2</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>1</v>
       </c>
-      <c r="B66" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B63,0)&amp;"  "&amp;TEXT(POWER(0.1,B64),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coef.txt"</f>
+      <c r="B78" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B75,0)&amp;"  "&amp;TEXT(POWER(0.1,B76),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 40  0.00010 /share/flink/tmp/improvedsk40e4coef.txt</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B79" t="s">
         <v>68</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E79" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>14</v>
       </c>
-      <c r="E68" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C61,0)&amp;"k"&amp;TEXT(B63,0)&amp;"e"&amp;TEXT(B64,0)&amp;"sse.txt "</f>
+      <c r="E80" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk40e4coeffreq.txt  /share/flink/tmp/improvedsk40e4sse.txt </v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>9</v>
       </c>
-      <c r="B81">
+      <c r="B93">
         <v>5</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C93" t="s">
         <v>62</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D93" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>0</v>
       </c>
-      <c r="B82">
+      <c r="B94">
         <v>40</v>
       </c>
-      <c r="D82" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coeffreq.txt"</f>
+      <c r="D94" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk50e4coef.txt   /share/flink/tmp/freqs/improvedsk50e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B83">
+      <c r="B95">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>60</v>
       </c>
-      <c r="B84">
+      <c r="B96">
         <v>4</v>
       </c>
-      <c r="C84">
-        <f>POWER(0.1,B84)</f>
+      <c r="C96">
+        <f>POWER(0.1,B96)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>2</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>1</v>
       </c>
-      <c r="B86" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B83,0)&amp;"  "&amp;TEXT(POWER(0.1,B84),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coef.txt"</f>
+      <c r="B98" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B95,0)&amp;"  "&amp;TEXT(POWER(0.1,B96),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 50  0.00010 /share/flink/tmp/improvedsk50e4coef.txt</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B99" t="s">
         <v>69</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E99" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>14</v>
       </c>
-      <c r="E88" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C81,0)&amp;"k"&amp;TEXT(B83,0)&amp;"e"&amp;TEXT(B84,0)&amp;"sse.txt "</f>
+      <c r="E100" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk50e4coeffreq.txt  /share/flink/tmp/improvedsk50e4sse.txt </v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>9</v>
       </c>
-      <c r="B102">
+      <c r="B114">
         <v>6</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C114" t="s">
         <v>62</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D114" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>0</v>
       </c>
-      <c r="B103">
+      <c r="B115">
         <v>40</v>
       </c>
-      <c r="D103" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coeffreq.txt"</f>
+      <c r="D115" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e1coef.txt   /share/flink/tmp/freqs/improvedsk30e1coeffreq.txt</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>4</v>
       </c>
-      <c r="B104">
+      <c r="B116">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>60</v>
       </c>
-      <c r="B105">
+      <c r="B117">
         <v>1</v>
       </c>
-      <c r="C105">
-        <f>POWER(0.1,B105)</f>
+      <c r="C117">
+        <f>POWER(0.1,B117)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>1</v>
       </c>
-      <c r="B107" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B104,0)&amp;"  "&amp;TEXT(POWER(0.1,B105),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coef.txt"</f>
+      <c r="B119" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B116,0)&amp;"  "&amp;TEXT(POWER(0.1,B117),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 30  0.10000 /share/flink/tmp/improvedsk30e1coef.txt</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>10</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E120" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C102,0)&amp;"k"&amp;TEXT(B104,0)&amp;"e"&amp;TEXT(B105,0)&amp;"sse.txt "</f>
+      <c r="E121" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e1coeffreq.txt  /share/flink/tmp/improvedsk30e1sse.txt </v>
       </c>
     </row>
@@ -3242,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A13:E124"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3254,425 +3930,511 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B14">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B16">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B5">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C5">
-        <f>POWER(0.1,B5)</f>
+      <c r="C17">
+        <f>POWER(0.1,B17)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B21">
         <v>700911821068</v>
       </c>
-      <c r="E9" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B5,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C1,0)&amp;"k"&amp;TEXT(B3,0)&amp;"e"&amp;TEXT(B5,0)&amp;"sse.txt "</f>
+      <c r="E21" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B17,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B17,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk10e4coeffreq.txt  /share/flink/tmp/twosk10e4sse.txt </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B38">
         <v>40</v>
       </c>
-      <c r="D26" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coeffreq.txt"</f>
+      <c r="D38" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk20e4coef.txt   /share/flink/tmp/freqs/twosk20e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B39">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B28">
+      <c r="B40">
         <v>4</v>
       </c>
-      <c r="C28">
-        <f>POWER(0.1,B28)</f>
+      <c r="C40">
+        <f>POWER(0.1,B40)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B27,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B28),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coef.txt"</f>
+      <c r="B42" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B39,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B40),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 20  40 0.00010 /share/flink/tmp/twosk20e4coef.txt</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="E32" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C25,0)&amp;"k"&amp;TEXT(B27,0)&amp;"e"&amp;TEXT(B28,0)&amp;"sse.txt "</f>
+      <c r="B44">
+        <v>641819667007</v>
+      </c>
+      <c r="E44" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk20e4coeffreq.txt  /share/flink/tmp/twosk20e4sse.txt </v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B44">
+      <c r="B56">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>0</v>
       </c>
-      <c r="B45">
+      <c r="B57">
         <v>40</v>
       </c>
-      <c r="D45" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coeffreq.txt"</f>
+      <c r="D57" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e4coef.txt   /share/flink/tmp/freqs/twosk30e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B46">
+      <c r="B58">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B47">
+      <c r="B59">
         <v>4</v>
       </c>
-      <c r="C47">
-        <f>POWER(0.1,B47)</f>
+      <c r="C59">
+        <f>POWER(0.1,B59)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B49" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B46,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B47),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coef.txt"</f>
+      <c r="B61" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B58,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B59),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 30  40 0.00010 /share/flink/tmp/twosk30e4coef.txt</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B62" t="s">
         <v>72</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C44,0)&amp;"k"&amp;TEXT(B46,0)&amp;"e"&amp;TEXT(B47,0)&amp;"sse.txt "</f>
+      <c r="E63" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e4coeffreq.txt  /share/flink/tmp/twosk30e4sse.txt </v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>9</v>
       </c>
-      <c r="B67">
+      <c r="B79">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C79" t="s">
         <v>70</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D79" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>0</v>
       </c>
-      <c r="B68">
+      <c r="B80">
         <v>40</v>
       </c>
-      <c r="D68" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coeffreq.txt"</f>
+      <c r="D80" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk40e4coef.txt   /share/flink/tmp/freqs/twosk40e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>4</v>
       </c>
-      <c r="B69">
+      <c r="B81">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>60</v>
       </c>
-      <c r="B70">
+      <c r="B82">
         <v>4</v>
       </c>
-      <c r="C70">
-        <f>POWER(0.1,B70)</f>
+      <c r="C82">
+        <f>POWER(0.1,B82)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>2</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>1</v>
       </c>
-      <c r="B72" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B69,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B70),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coef.txt"</f>
+      <c r="B84" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B81,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B82),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 40  40 0.00010 /share/flink/tmp/twosk40e4coef.txt</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>10</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B85" t="s">
         <v>73</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E85" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C67,0)&amp;"k"&amp;TEXT(B69,0)&amp;"e"&amp;TEXT(B70,0)&amp;"sse.txt "</f>
-        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk40e4coeffreq.txt  /share/flink/tmp/twosk40e4sse.txt </v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk40e4coeffreq.txt  /share/flink/tmp/twosk40e4sse.txt </v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B86">
+      <c r="B98">
         <v>5</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C98" t="s">
         <v>70</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D98" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>0</v>
       </c>
-      <c r="B87">
+      <c r="B99">
         <v>40</v>
       </c>
-      <c r="D87" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coeffreq.txt"</f>
+      <c r="D99" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk50e4coef.txt   /share/flink/tmp/freqs/twosk50e4coeffreq.txt</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>4</v>
       </c>
-      <c r="B88">
+      <c r="B100">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>60</v>
       </c>
-      <c r="B89">
+      <c r="B101">
         <v>4</v>
       </c>
-      <c r="C89">
-        <f>POWER(0.1,B89)</f>
+      <c r="C101">
+        <f>POWER(0.1,B101)</f>
         <v>1.0000000000000005E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>2</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>1</v>
       </c>
-      <c r="B91" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B88,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B89),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coef.txt"</f>
+      <c r="B103" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B100,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B101),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 50  40 0.00010 /share/flink/tmp/twosk50e4coef.txt</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="E92" t="s">
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>14</v>
       </c>
-      <c r="E93" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C86,0)&amp;"k"&amp;TEXT(B88,0)&amp;"e"&amp;TEXT(B89,0)&amp;"sse.txt "</f>
+      <c r="E105" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk50e4coeffreq.txt  /share/flink/tmp/twosk50e4sse.txt </v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>40</v>
+      </c>
+      <c r="D118" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e1coef.txt   /share/flink/tmp/freqs/twosk30e1coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <f>POWER(0.1,B120)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B119,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B120),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.10000 /share/flink/tmp/twosk30e1coef.txt</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e1coeffreq.txt  /share/flink/tmp/twosk30e1sse.txt </v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="79">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8m 27s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,26 +282,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6m9s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10m37s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6m5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6m14s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6m40s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>twos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,6 +311,34 @@
   </si>
   <si>
     <t>6m26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7m42s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9m18s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9m10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m58s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9m2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m56s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m41s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,7 +1105,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23329895"/>
+          <a:off x="0" y="25641295"/>
           <a:ext cx="8122959" cy="1850604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1141,7 +1149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26697643"/>
+          <a:off x="0" y="29009043"/>
           <a:ext cx="7726124" cy="1934049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1220,270 +1228,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>267497</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132931</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC18980-8B5C-4654-8F6A-FF343EE07550}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1447800"/>
-          <a:ext cx="9062247" cy="2063331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>17200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>126494</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DDE2FC-2A14-44CE-8978-C32110476A78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9137650" y="1428937"/>
-          <a:ext cx="8259500" cy="2253557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>23894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>531574</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>31262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B396AC-9737-450C-8007-4AE92D6114D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5002294"/>
-          <a:ext cx="7345124" cy="1963168"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>166743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>582378</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>170967</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1282196-C9D4-45DD-85DE-7C915D8BB3B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8523343"/>
-          <a:ext cx="8056328" cy="2137824"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>52023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>379221</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>120183</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3BE865-0BCD-40C8-ACFC-200750C62B20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12142423"/>
-          <a:ext cx="7853171" cy="2023960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>10599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>655397</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>18605</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2283B2-FF13-4637-9C14-A62CE617BB3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15656999"/>
-          <a:ext cx="8789747" cy="2141606"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1508,7 +1252,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1517,6 +1261,270 @@
         <a:xfrm>
           <a:off x="38100" y="152400"/>
           <a:ext cx="13400000" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7674</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5D4ACD-E486-481E-91C4-C19BC8F8EA62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3555529"/>
+          <a:ext cx="8142024" cy="2193896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>407752</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF88A70D-D319-4078-9943-B2EA441740C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7175666"/>
+          <a:ext cx="7881702" cy="2090119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>110412</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68031</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>177324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02923984-09E9-44C7-B3FB-63D4190037AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="110412" y="10693399"/>
+          <a:ext cx="8091969" cy="2107725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288581</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525B0880-0591-4259-BBC0-B7327F01AD4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14281150"/>
+          <a:ext cx="8422931" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>48574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591888</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>154501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEE2D84-6CBC-4477-A492-E261ECD31580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17828574"/>
+          <a:ext cx="8726238" cy="2239527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>18738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404502</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BA3611-2936-45B8-B58D-2C84724E1200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21532538"/>
+          <a:ext cx="9199252" cy="2286311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,13 +1631,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>132631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>96026</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>9081</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>117031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1652,8 +1660,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9086850"/>
-          <a:ext cx="10116326" cy="2479231"/>
+          <a:off x="0" y="11334031"/>
+          <a:ext cx="8642350" cy="2118000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2080,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2110,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2126,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -2152,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -2166,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2182,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2190,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2198,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -2224,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -2238,7 +2246,7 @@
         <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2270,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
@@ -2296,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -2310,7 +2318,7 @@
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2326,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2342,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
         <v>25</v>
@@ -2368,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -2382,7 +2390,7 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2398,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2406,7 +2414,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2414,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -2459,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -2521,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -2549,7 +2557,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2616,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2647,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2687,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14:E182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2766,6 +2774,9 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
+      <c r="B21">
+        <v>701201023371</v>
+      </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2821,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2829,7 +2840,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2839,8 +2850,11 @@
       <c r="A42" t="s">
         <v>14</v>
       </c>
+      <c r="B42">
+        <v>585087116118</v>
+      </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2870,7 +2884,7 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2894,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2902,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -2912,8 +2926,11 @@
       <c r="A63" t="s">
         <v>14</v>
       </c>
+      <c r="B63">
+        <v>573524349366</v>
+      </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2943,7 +2960,7 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2967,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2975,10 +2992,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
         <v>25</v>
@@ -2989,7 +3006,7 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3019,7 +3036,7 @@
         <v>50</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3043,13 +3060,16 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
+      <c r="B103" t="s">
+        <v>64</v>
+      </c>
       <c r="E103" t="s">
         <v>25</v>
       </c>
@@ -3058,11 +3078,8 @@
       <c r="A104" t="s">
         <v>14</v>
       </c>
-      <c r="B104" t="s">
-        <v>66</v>
-      </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3073,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -3101,7 +3118,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3133,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
         <v>25</v>
@@ -3156,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -3184,7 +3201,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -3216,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E143" t="s">
         <v>25</v>
@@ -3239,7 +3256,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -3267,7 +3284,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3298,6 +3315,9 @@
       <c r="A162" t="s">
         <v>10</v>
       </c>
+      <c r="B162" t="s">
+        <v>72</v>
+      </c>
       <c r="E162" t="s">
         <v>25</v>
       </c>
@@ -3319,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
@@ -3347,7 +3367,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B178">
         <v>5</v>
@@ -3400,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:E121"/>
+  <dimension ref="A13:E183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3421,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3448,7 +3468,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -3479,10 +3499,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -3505,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -3533,7 +3550,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -3565,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -3588,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -3616,7 +3633,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -3648,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
@@ -3671,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -3699,7 +3716,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -3731,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
         <v>25</v>
@@ -3754,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -3782,7 +3799,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -3814,7 +3831,7 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E99" t="s">
         <v>25</v>
@@ -3837,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -3865,7 +3882,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3896,6 +3913,9 @@
       <c r="A120" t="s">
         <v>10</v>
       </c>
+      <c r="B120" t="s">
+        <v>78</v>
+      </c>
       <c r="E120" t="s">
         <v>25</v>
       </c>
@@ -3907,6 +3927,246 @@
       <c r="E121" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e1coeffreq.txt  /share/flink/tmp/improvedsk30e1sse.txt </v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>40</v>
+      </c>
+      <c r="D136" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e2coef.txt   /share/flink/tmp/freqs/improvedsk30e2coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <f>POWER(0.1,B138)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B137,0)&amp;"  "&amp;TEXT(POWER(0.1,B138),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.01000 /share/flink/tmp/improvedsk30e2coef.txt</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e2coeffreq.txt  /share/flink/tmp/improvedsk30e2sse.txt </v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="D157" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e3coef.txt   /share/flink/tmp/freqs/improvedsk30e3coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <f>POWER(0.1,B159)</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B158,0)&amp;"  "&amp;TEXT(POWER(0.1,B159),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.00100 /share/flink/tmp/improvedsk30e3coef.txt</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e3coeffreq.txt  /share/flink/tmp/improvedsk30e3sse.txt </v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>61</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>40</v>
+      </c>
+      <c r="D177" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e5coef.txt   /share/flink/tmp/freqs/improvedsk30e5coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <f>POWER(0.1,B179)</f>
+        <v>1.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B178,0)&amp;"  "&amp;TEXT(POWER(0.1,B179),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  0.00001 /share/flink/tmp/improvedsk30e5coef.txt</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e5coeffreq.txt  /share/flink/tmp/improvedsk30e5sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -3920,8 +4180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3938,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3973,7 +4233,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -3988,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3996,7 +4256,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4004,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -4030,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -4058,7 +4318,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4073,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4090,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -4116,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -4144,7 +4404,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -4159,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4176,7 +4436,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
@@ -4199,7 +4459,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -4227,7 +4487,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4242,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4259,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
         <v>25</v>
@@ -4282,7 +4542,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -4310,7 +4570,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -4325,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4342,7 +4602,7 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E104" t="s">
         <v>25</v>
@@ -4365,7 +4625,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -4393,7 +4653,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4408,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="83">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,22 @@
   </si>
   <si>
     <t>8m41s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7m41s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m23s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m48s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1273,14 +1289,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177329</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7674</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>59825</xdr:rowOff>
+      <xdr:rowOff>9583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1303,8 +1319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3555529"/>
-          <a:ext cx="8142024" cy="2193896"/>
+          <a:off x="0" y="3580929"/>
+          <a:ext cx="7861300" cy="2118254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,6 +1541,94 @@
         <a:xfrm>
           <a:off x="0" y="21532538"/>
           <a:ext cx="9199252" cy="2286311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>37472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388683</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>26295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C79264D-4706-45E6-B09F-7C79D55A1053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="25285072"/>
+          <a:ext cx="9100883" cy="2300223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>45003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204531</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>18153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF88EC8-151E-429D-B482-60FFA8117FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29026403"/>
+          <a:ext cx="7678481" cy="2106750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,6 +1906,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>68657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>174634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C21D5D-2AD5-48CD-95BB-6246E493EA72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22115857"/>
+          <a:ext cx="7670800" cy="2061777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>43461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>72583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8990EDFE-0CCE-4FAC-9851-3C441338366F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25646661"/>
+          <a:ext cx="8223250" cy="1984922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>47884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210874</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>40795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FBF2F5-BCC9-4F52-BF46-0BE107E0A7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="29207084"/>
+          <a:ext cx="8891324" cy="2304311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2070,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2695,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14:E182"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3005,6 +3241,9 @@
       <c r="A85" t="s">
         <v>14</v>
       </c>
+      <c r="B85">
+        <v>553686184134</v>
+      </c>
       <c r="E85" t="s">
         <v>45</v>
       </c>
@@ -3078,6 +3317,9 @@
       <c r="A104" t="s">
         <v>14</v>
       </c>
+      <c r="B104">
+        <v>545792371032</v>
+      </c>
       <c r="E104" t="s">
         <v>57</v>
       </c>
@@ -3160,6 +3402,9 @@
       <c r="A124" t="s">
         <v>14</v>
       </c>
+      <c r="B124">
+        <v>2686616258304760</v>
+      </c>
       <c r="E124" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e1coeffreq.txt  /share/flink/tmp/basicsk30e1sse.txt </v>
@@ -3243,6 +3488,9 @@
       <c r="A144" t="s">
         <v>14</v>
       </c>
+      <c r="B144">
+        <v>1643963023519</v>
+      </c>
       <c r="E144" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e2coeffreq.txt  /share/flink/tmp/basicsk30e2sse.txt </v>
@@ -3325,6 +3573,9 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
+      </c>
+      <c r="B163">
+        <v>573181449951</v>
       </c>
       <c r="E163" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"sse.txt "</f>
@@ -3422,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3509,6 +3760,9 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
+      <c r="B20">
+        <v>702153860976</v>
+      </c>
       <c r="E20" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B16,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B16,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk10e4coeffreq.txt  /share/flink/tmp/improvedsk10e4sse.txt </v>
@@ -3592,6 +3846,9 @@
       <c r="A40" t="s">
         <v>14</v>
       </c>
+      <c r="B40">
+        <v>584306725090</v>
+      </c>
       <c r="E40" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C33,0)&amp;"k"&amp;TEXT(B35,0)&amp;"e"&amp;TEXT(B36,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk20e4coeffreq.txt  /share/flink/tmp/improvedsk20e4sse.txt </v>
@@ -3675,6 +3932,9 @@
       <c r="A60" t="s">
         <v>14</v>
       </c>
+      <c r="B60">
+        <v>554247600964</v>
+      </c>
       <c r="E60" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C53,0)&amp;"k"&amp;TEXT(B55,0)&amp;"e"&amp;TEXT(B56,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt  /share/flink/tmp/improvedsk30e4sse.txt </v>
@@ -3758,6 +4018,9 @@
       <c r="A80" t="s">
         <v>14</v>
       </c>
+      <c r="B80">
+        <v>547810006561</v>
+      </c>
       <c r="E80" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C73,0)&amp;"k"&amp;TEXT(B75,0)&amp;"e"&amp;TEXT(B76,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk40e4coeffreq.txt  /share/flink/tmp/improvedsk40e4sse.txt </v>
@@ -3841,6 +4104,9 @@
       <c r="A100" t="s">
         <v>14</v>
       </c>
+      <c r="B100">
+        <v>535607820286</v>
+      </c>
       <c r="E100" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C93,0)&amp;"k"&amp;TEXT(B95,0)&amp;"e"&amp;TEXT(B96,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk50e4coeffreq.txt  /share/flink/tmp/improvedsk50e4sse.txt </v>
@@ -3924,6 +4190,9 @@
       <c r="A121" t="s">
         <v>14</v>
       </c>
+      <c r="B121">
+        <v>2735284001304760</v>
+      </c>
       <c r="E121" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C114,0)&amp;"k"&amp;TEXT(B116,0)&amp;"e"&amp;TEXT(B117,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e1coeffreq.txt  /share/flink/tmp/improvedsk30e1sse.txt </v>
@@ -3996,6 +4265,9 @@
       <c r="A141" t="s">
         <v>10</v>
       </c>
+      <c r="B141" t="s">
+        <v>79</v>
+      </c>
       <c r="E141" t="s">
         <v>25</v>
       </c>
@@ -4004,6 +4276,9 @@
       <c r="A142" t="s">
         <v>14</v>
       </c>
+      <c r="B142">
+        <v>1479305784769</v>
+      </c>
       <c r="E142" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C135,0)&amp;"k"&amp;TEXT(B137,0)&amp;"e"&amp;TEXT(B138,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e2coeffreq.txt  /share/flink/tmp/improvedsk30e2sse.txt </v>
@@ -4076,6 +4351,9 @@
       <c r="A162" t="s">
         <v>10</v>
       </c>
+      <c r="B162" t="s">
+        <v>80</v>
+      </c>
       <c r="E162" t="s">
         <v>25</v>
       </c>
@@ -4083,6 +4361,9 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
+      </c>
+      <c r="B163">
+        <v>776794331363</v>
       </c>
       <c r="E163" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"sse.txt "</f>
@@ -4178,10 +4459,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:E124"/>
+  <dimension ref="A13:E185"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4446,6 +4727,9 @@
       <c r="A63" t="s">
         <v>14</v>
       </c>
+      <c r="B63">
+        <v>661022747985</v>
+      </c>
       <c r="E63" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e4coeffreq.txt  /share/flink/tmp/twosk30e4sse.txt </v>
@@ -4529,6 +4813,9 @@
       <c r="A86" t="s">
         <v>14</v>
       </c>
+      <c r="B86">
+        <v>656251133849</v>
+      </c>
       <c r="E86" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk40e4coeffreq.txt  /share/flink/tmp/twosk40e4sse.txt </v>
@@ -4612,6 +4899,9 @@
       <c r="A105" t="s">
         <v>14</v>
       </c>
+      <c r="B105">
+        <v>613990735498</v>
+      </c>
       <c r="E105" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk50e4coeffreq.txt  /share/flink/tmp/twosk50e4sse.txt </v>
@@ -4684,6 +4974,9 @@
       <c r="A123" t="s">
         <v>10</v>
       </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
       <c r="E123" t="s">
         <v>25</v>
       </c>
@@ -4692,9 +4985,264 @@
       <c r="A124" t="s">
         <v>14</v>
       </c>
+      <c r="B124">
+        <v>1.09352701583047E+16</v>
+      </c>
       <c r="E124" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e1coeffreq.txt  /share/flink/tmp/twosk30e1sse.txt </v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>40</v>
+      </c>
+      <c r="D138" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e2coef.txt   /share/flink/tmp/freqs/twosk30e2coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <f>POWER(0.1,B140)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B139,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B140),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.01000 /share/flink/tmp/twosk30e2coef.txt</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>78</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>71407816464769</v>
+      </c>
+      <c r="E144" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e2coeffreq.txt  /share/flink/tmp/twosk30e2sse.txt </v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>40</v>
+      </c>
+      <c r="D158" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e3coef.txt   /share/flink/tmp/freqs/twosk30e3coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <f>POWER(0.1,B160)</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B159,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B160),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.00100 /share/flink/tmp/twosk30e3coef.txt</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>81</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164">
+        <v>1807026300605</v>
+      </c>
+      <c r="E164" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e3coeffreq.txt  /share/flink/tmp/twosk30e3sse.txt </v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>65</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>40</v>
+      </c>
+      <c r="D179" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e5coef.txt   /share/flink/tmp/freqs/twosk30e5coeffreq.txt</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <f>POWER(0.1,B181)</f>
+        <v>1.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B180,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B181),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.00001 /share/flink/tmp/twosk30e5coef.txt</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"sse.txt "</f>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e5coeffreq.txt  /share/flink/tmp/twosk30e5sse.txt </v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="89">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,30 @@
     <t>8m48s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sendv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improved-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twoLevel-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ε</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -398,8 +422,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,6 +443,4545 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> time (seconds): vary k</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sendv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$19:$F$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCDD-440C-8E3B-F0908BDE6626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$19:$F$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCDD-440C-8E3B-F0908BDE6626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improved-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$19:$F$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CCDD-440C-8E3B-F0908BDE6626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>twoLevel-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$19:$F$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CCDD-440C-8E3B-F0908BDE6626}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1382606272"/>
+        <c:axId val="1174340992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1382606272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174340992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1174340992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382606272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>SSE:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> vary k</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sendv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$26:$F$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>700062878179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>583796393311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572219126720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550712093674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>544444457240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F95B-4305-A0D9-01DA216B431B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$26:$F$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>701201023371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>585087116118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573524349366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>553686184134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>545792371032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F95B-4305-A0D9-01DA216B431B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improved-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$26:$F$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>702153860976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>584306725090</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>554247600964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>547810006561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535607820286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F95B-4305-A0D9-01DA216B431B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>twoLevel-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$26:$F$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>700911821068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641819667007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>661022747985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>656251133849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>613990735498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F95B-4305-A0D9-01DA216B431B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1324358608"/>
+        <c:axId val="1543430480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1324358608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543430480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1543430480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324358608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Running time(seconds): vary </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="zh-CN"/>
+              <a:t>ε</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$33:$E$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0001</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ε</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECC0-483E-BB7B-343C28B8FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improved-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$33:$E$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0001</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ε</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECC0-483E-BB7B-343C28B8FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>twoLevel-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$33:$E$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0001</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ε</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECC0-483E-BB7B-343C28B8FDC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1326703472"/>
+        <c:axId val="1562838640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1326703472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562838640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1562838640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326703472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>SSE:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> vary </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="zh-CN" baseline="0"/>
+              <a:t>ε</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$39:$E$40</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0001</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ε</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2686616258304760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1643963023519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573181449951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>573524349366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC4D-417E-BA46-FD32FDD703F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improved-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$39:$E$40</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0001</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ε</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2735284001304760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1479305784769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>776794331363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>554247600964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC4D-417E-BA46-FD32FDD703F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>twoLevel-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$39:$E$40</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0001</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ε</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.09352701583047E+16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71407816464769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1807026300605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>661022747985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC4D-417E-BA46-FD32FDD703F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1326799152"/>
+        <c:axId val="1562890048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1326799152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562890048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1562890048"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326799152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,6 +5253,155 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483BDB66-4854-459B-9619-CAC921C8B7B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A933EF-C1B9-4D0D-9165-F43878171748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC9B51E-41B0-464A-A6A2-5E2C1FB38B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BA40D-B1C2-4A2C-A7FC-8E5D0FC2EF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -777,7 +5493,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1239,7 +5955,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1640,7 +6356,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2306,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2686,10 +7402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2825,7 +7541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2834,9 +7550,375 @@
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e4coeffreq.txt  /share/flink/tmp/improvedsk30e4sse.txt </v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21">
+        <v>1800</v>
+      </c>
+      <c r="C21">
+        <v>1860</v>
+      </c>
+      <c r="D21">
+        <v>1855</v>
+      </c>
+      <c r="E21">
+        <v>1907</v>
+      </c>
+      <c r="F21">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22">
+        <v>731</v>
+      </c>
+      <c r="C22">
+        <v>822</v>
+      </c>
+      <c r="D22">
+        <v>610</v>
+      </c>
+      <c r="E22">
+        <v>609</v>
+      </c>
+      <c r="F22">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>558</v>
+      </c>
+      <c r="C23">
+        <v>550</v>
+      </c>
+      <c r="D23">
+        <v>538</v>
+      </c>
+      <c r="E23">
+        <v>542</v>
+      </c>
+      <c r="F23">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24">
+        <v>760</v>
+      </c>
+      <c r="C24">
+        <v>484</v>
+      </c>
+      <c r="D24">
+        <v>502</v>
+      </c>
+      <c r="E24">
+        <v>668</v>
+      </c>
+      <c r="F24">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28">
+        <v>700062878179</v>
+      </c>
+      <c r="C28">
+        <v>583796393311</v>
+      </c>
+      <c r="D28">
+        <v>572219126720</v>
+      </c>
+      <c r="E28">
+        <v>550712093674</v>
+      </c>
+      <c r="F28">
+        <v>544444457240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>701201023371</v>
+      </c>
+      <c r="C29">
+        <v>585087116118</v>
+      </c>
+      <c r="D29">
+        <v>573524349366</v>
+      </c>
+      <c r="E29">
+        <v>553686184134</v>
+      </c>
+      <c r="F29">
+        <v>545792371032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>702153860976</v>
+      </c>
+      <c r="C30">
+        <v>584306725090</v>
+      </c>
+      <c r="D30">
+        <v>554247600964</v>
+      </c>
+      <c r="E30">
+        <v>547810006561</v>
+      </c>
+      <c r="F30">
+        <v>535607820286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>700911821068</v>
+      </c>
+      <c r="C31">
+        <v>641819667007</v>
+      </c>
+      <c r="D31">
+        <v>661022747985</v>
+      </c>
+      <c r="E31">
+        <v>656251133849</v>
+      </c>
+      <c r="F31">
+        <v>613990735498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>0.01</v>
+      </c>
+      <c r="D34">
+        <v>1E-3</v>
+      </c>
+      <c r="E34">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>355</v>
+      </c>
+      <c r="C35">
+        <v>386</v>
+      </c>
+      <c r="D35">
+        <v>462</v>
+      </c>
+      <c r="E35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>521</v>
+      </c>
+      <c r="C36">
+        <v>461</v>
+      </c>
+      <c r="D36">
+        <v>496</v>
+      </c>
+      <c r="E36">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>528</v>
+      </c>
+      <c r="C37">
+        <v>521</v>
+      </c>
+      <c r="D37">
+        <v>623</v>
+      </c>
+      <c r="E37">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0.1</v>
+      </c>
+      <c r="C40">
+        <v>0.01</v>
+      </c>
+      <c r="D40">
+        <v>1E-3</v>
+      </c>
+      <c r="E40">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>2686616258304760</v>
+      </c>
+      <c r="C41">
+        <v>1643963023519</v>
+      </c>
+      <c r="D41">
+        <v>573181449951</v>
+      </c>
+      <c r="E41">
+        <v>573524349366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42">
+        <v>2735284001304760</v>
+      </c>
+      <c r="C42">
+        <v>1479305784769</v>
+      </c>
+      <c r="D42">
+        <v>776794331363</v>
+      </c>
+      <c r="E42">
+        <v>554247600964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>1.09352701583047E+16</v>
+      </c>
+      <c r="C43">
+        <v>71407816464769</v>
+      </c>
+      <c r="D43">
+        <v>1807026300605</v>
+      </c>
+      <c r="E43">
+        <v>661022747985</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B39:E39"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2844,7 +7926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2932,7 +8014,7 @@
   <dimension ref="A14:E182"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3673,7 +8755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E183"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
@@ -4461,8 +9543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="send-v" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="94">
   <si>
     <t>parallelism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">/share/flink/tmp/dataset245.txt 10 40 0.0001 /share/flink/tmp/twosk10e4coef.txt </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12m40s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8m4s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10m37s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,18 +283,6 @@
   </si>
   <si>
     <t>sendcoef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8m22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11m8s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8m29s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -350,14 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10m23s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8m48s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sendv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +351,54 @@
   </si>
   <si>
     <t>ε</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m52s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9m1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m36s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m48s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m31s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m48s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m19s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6m44s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8m6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11m13s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11m18s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +444,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,6 +1589,7 @@
         <c:axId val="1543430480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="400000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6361,226 +6382,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>29531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>610905</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104257</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC68F11-C52C-43A4-AB9B-511D50774780}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="1629731"/>
-          <a:ext cx="9259605" cy="2563926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>20758</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>512545</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>158311</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B0E015-DB07-499F-8145-030B06638B24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5710358"/>
-          <a:ext cx="7891245" cy="1915553"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>132631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>117031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DCE03A-CB2B-47D0-9F43-0CDEFE017182}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11334031"/>
-          <a:ext cx="8642350" cy="2118000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>37211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>477602</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>170960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FB2A49-A8EE-44A6-BAEF-6A0B86669B29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="13194411"/>
-          <a:ext cx="7138752" cy="1911749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>15857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>166417</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>151929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9703F187-2116-4DA8-AFE9-1A87C415569E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="16551257"/>
-          <a:ext cx="7545117" cy="1914072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -6605,7 +6406,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6625,22 +6426,242 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>68657</xdr:rowOff>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>174634</xdr:rowOff>
+      <xdr:colOff>204521</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C21D5D-2AD5-48CD-95BB-6246E493EA72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E05B6D-92C1-482E-BD0A-D698743CD810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120650" y="7827607"/>
+          <a:ext cx="7462571" cy="1979475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163290</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D90E67-5BD5-4528-9BB5-B4E2799173FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3853730"/>
+          <a:ext cx="8862790" cy="2314821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199328</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F736797B-5BB2-4B7B-8F56-06E6862C8D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32410400"/>
+          <a:ext cx="9559228" cy="2470150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>21250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898AB4C6-BCF5-4BB8-9096-B2345E6F0DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57151" y="11400450"/>
+          <a:ext cx="8756650" cy="2273795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>311151</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>96225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE8D359-5896-4BC3-9252-849FE687B042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="15309851"/>
+          <a:ext cx="9010650" cy="2388574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>175333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10845</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>15375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FA5E56-EE11-49D9-B846-A8F4C628F7EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6656,8 +6677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22115857"/>
-          <a:ext cx="7670800" cy="2061777"/>
+          <a:off x="50800" y="19199933"/>
+          <a:ext cx="7338745" cy="1973642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6669,22 +6690,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>43461</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>3733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>72583</xdr:rowOff>
+      <xdr:colOff>477562</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8990EDFE-0CCE-4FAC-9851-3C441338366F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F3386F-B4D5-4C3D-B2AC-7167BE45A0A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6700,8 +6721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25646661"/>
-          <a:ext cx="8223250" cy="1984922"/>
+          <a:off x="57150" y="22584333"/>
+          <a:ext cx="8459512" cy="2113526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6712,23 +6733,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>47884</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>210874</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>40795</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>401376</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>5875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FBF2F5-BCC9-4F52-BF46-0BE107E0A7E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B82026C-D553-4316-9F6C-E945956AA8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6744,8 +6765,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="29207084"/>
-          <a:ext cx="8891324" cy="2304311"/>
+          <a:off x="8801100" y="11410896"/>
+          <a:ext cx="8224576" cy="2107779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>36301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541105</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>5863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94073445-0937-4CE6-996F-2140DACEDAD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="26172901"/>
+          <a:ext cx="7881705" cy="2103162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>23253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426797</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>43983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ECE89A-65EE-467A-A8C6-522A898D5669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="29715853"/>
+          <a:ext cx="7043497" cy="1798730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>35028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>229933</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>48425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33033717-FCAB-4022-9E47-AB4CCDDF56D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9575800" y="15325828"/>
+          <a:ext cx="9920033" cy="2680397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>27419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>369652</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>132892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF6F4EE-C71E-41E2-BB5B-3C19A69C83D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="19229819"/>
+          <a:ext cx="8218252" cy="2061273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7040,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -7070,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7112,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -7126,7 +7323,7 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -7142,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -7150,7 +7347,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -7158,7 +7355,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -7184,7 +7381,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -7198,7 +7395,7 @@
         <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -7214,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,7 +7419,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -7230,7 +7427,7 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
@@ -7256,7 +7453,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -7270,7 +7467,7 @@
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -7286,7 +7483,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -7294,7 +7491,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -7302,7 +7499,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
         <v>25</v>
@@ -7328,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -7342,7 +7539,7 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -7358,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -7366,7 +7563,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -7374,7 +7571,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -7404,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7419,7 +7616,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -7481,7 +7678,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -7509,7 +7706,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -7551,13 +7748,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
@@ -7578,7 +7775,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>1800</v>
@@ -7598,7 +7795,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>731</v>
@@ -7618,7 +7815,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>558</v>
@@ -7638,7 +7835,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>760</v>
@@ -7657,13 +7854,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
@@ -7684,7 +7881,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>700062878179</v>
@@ -7704,7 +7901,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>701201023371</v>
@@ -7724,7 +7921,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <v>702153860976</v>
@@ -7744,7 +7941,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>700911821068</v>
@@ -7763,13 +7960,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34">
@@ -7787,7 +7984,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>355</v>
@@ -7804,7 +8001,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>521</v>
@@ -7821,7 +8018,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>528</v>
@@ -7837,12 +8034,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40">
@@ -7860,7 +8057,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>2686616258304760</v>
@@ -7877,7 +8074,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>2735284001304760</v>
@@ -7894,7 +8091,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1.09352701583047E+16</v>
@@ -7942,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -7973,7 +8170,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8011,10 +8208,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A14:E182"/>
+  <dimension ref="A14:E163"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:XFD182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8126,7 +8323,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -8150,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -8158,7 +8355,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -8172,7 +8369,7 @@
         <v>585087116118</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -8202,7 +8399,7 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -8226,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -8234,7 +8431,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -8248,7 +8445,7 @@
         <v>573524349366</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -8278,7 +8475,7 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -8302,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -8310,10 +8507,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
         <v>25</v>
@@ -8327,7 +8524,7 @@
         <v>553686184134</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -8357,7 +8554,7 @@
         <v>50</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -8381,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -8389,7 +8586,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E103" t="s">
         <v>25</v>
@@ -8403,7 +8600,7 @@
         <v>545792371032</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -8414,7 +8611,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -8442,7 +8639,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -8474,7 +8671,7 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E123" t="s">
         <v>25</v>
@@ -8500,7 +8697,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -8528,7 +8725,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -8560,7 +8757,7 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E143" t="s">
         <v>25</v>
@@ -8586,7 +8783,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -8614,7 +8811,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -8646,7 +8843,7 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E162" t="s">
         <v>25</v>
@@ -8662,86 +8859,6 @@
       <c r="E163" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e3coeffreq.txt  /share/flink/tmp/basicsk30e3sse.txt </v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>9</v>
-      </c>
-      <c r="B175">
-        <v>9</v>
-      </c>
-      <c r="C175" t="s">
-        <v>60</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176">
-        <v>40</v>
-      </c>
-      <c r="D176" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/basicsk30e5coef.txt   /share/flink/tmp/freqs/basicsk30e5coeffreq.txt</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>59</v>
-      </c>
-      <c r="B178">
-        <v>5</v>
-      </c>
-      <c r="C178">
-        <f>POWER(0.1,B178)</f>
-        <v>1.0000000000000006E-5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B177,0)&amp;"  "&amp;TEXT(POWER(0.1,B178),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 30  0.00001 /share/flink/tmp/basicsk30e5coef.txt</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C175,0)&amp;"k"&amp;TEXT(B177,0)&amp;"e"&amp;TEXT(B178,0)&amp;"sse.txt "</f>
-        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/basicsk30e5coeffreq.txt  /share/flink/tmp/basicsk30e5sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -8753,10 +8870,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:E183"/>
+  <dimension ref="A13:E163"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8774,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8801,7 +8918,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -8832,7 +8949,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -8858,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -8886,7 +9003,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -8918,7 +9035,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -8944,7 +9061,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -8972,7 +9089,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -9004,7 +9121,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
@@ -9030,7 +9147,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -9058,7 +9175,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -9090,7 +9207,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
         <v>25</v>
@@ -9116,7 +9233,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -9144,7 +9261,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -9176,7 +9293,7 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
         <v>25</v>
@@ -9202,7 +9319,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -9230,7 +9347,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -9262,7 +9379,7 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E120" t="s">
         <v>25</v>
@@ -9288,7 +9405,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -9316,7 +9433,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -9348,7 +9465,7 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E141" t="s">
         <v>25</v>
@@ -9374,7 +9491,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -9402,7 +9519,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -9434,7 +9551,7 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E162" t="s">
         <v>25</v>
@@ -9450,86 +9567,6 @@
       <c r="E163" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C156,0)&amp;"k"&amp;TEXT(B158,0)&amp;"e"&amp;TEXT(B159,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e3coeffreq.txt  /share/flink/tmp/improvedsk30e3sse.txt </v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>9</v>
-      </c>
-      <c r="B176">
-        <v>9</v>
-      </c>
-      <c r="C176" t="s">
-        <v>61</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177">
-        <v>40</v>
-      </c>
-      <c r="D177" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/improvedsk30e5coef.txt   /share/flink/tmp/freqs/improvedsk30e5coeffreq.txt</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>59</v>
-      </c>
-      <c r="B179">
-        <v>5</v>
-      </c>
-      <c r="C179">
-        <f>POWER(0.1,B179)</f>
-        <v>1.0000000000000006E-5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>2</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>1</v>
-      </c>
-      <c r="B181" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B178,0)&amp;"  "&amp;TEXT(POWER(0.1,B179),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 30  0.00001 /share/flink/tmp/improvedsk30e5coef.txt</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C176,0)&amp;"k"&amp;TEXT(B178,0)&amp;"e"&amp;TEXT(B179,0)&amp;"sse.txt "</f>
-        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/improvedsk30e5coeffreq.txt  /share/flink/tmp/improvedsk30e5sse.txt </v>
       </c>
     </row>
   </sheetData>
@@ -9543,8 +9580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:E185"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9561,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9596,7 +9633,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -9627,7 +9664,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -9638,7 +9675,7 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>700911821068</v>
+        <v>708617029123</v>
       </c>
       <c r="E21" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B17,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C13,0)&amp;"k"&amp;TEXT(B15,0)&amp;"e"&amp;TEXT(B17,0)&amp;"sse.txt "</f>
@@ -9653,7 +9690,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -9681,7 +9718,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -9713,7 +9750,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -9724,7 +9761,7 @@
         <v>14</v>
       </c>
       <c r="B44">
-        <v>641819667007</v>
+        <v>690613769366</v>
       </c>
       <c r="E44" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C37,0)&amp;"k"&amp;TEXT(B39,0)&amp;"e"&amp;TEXT(B40,0)&amp;"sse.txt "</f>
@@ -9739,7 +9776,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -9767,7 +9804,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -9799,7 +9836,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
@@ -9810,7 +9850,10 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>661022747985</v>
+        <v>639824230930</v>
+      </c>
+      <c r="C63">
+        <v>617489203837</v>
       </c>
       <c r="E63" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C56,0)&amp;"k"&amp;TEXT(B58,0)&amp;"e"&amp;TEXT(B59,0)&amp;"sse.txt "</f>
@@ -9825,7 +9868,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -9853,7 +9896,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -9885,7 +9928,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
       </c>
       <c r="E85" t="s">
         <v>25</v>
@@ -9896,354 +9942,357 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>656251133849</v>
+        <v>666299348748</v>
+      </c>
+      <c r="C86">
+        <v>646248677016</v>
       </c>
       <c r="E86" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C79,0)&amp;"k"&amp;TEXT(B81,0)&amp;"e"&amp;TEXT(B82,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk40e4coeffreq.txt  /share/flink/tmp/twosk40e4sse.txt </v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>65</v>
-      </c>
-      <c r="D98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>40</v>
-      </c>
-      <c r="D99" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk50e4coef.txt   /share/flink/tmp/freqs/twosk50e4coeffreq.txt</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100">
-        <v>50</v>
-      </c>
-    </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <f>POWER(0.1,B101)</f>
-        <v>1.0000000000000005E-4</v>
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>40</v>
+      </c>
+      <c r="D102" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C101,0)&amp;"k"&amp;TEXT(B103,0)&amp;"e"&amp;TEXT(B104,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C101,0)&amp;"k"&amp;TEXT(B103,0)&amp;"e"&amp;TEXT(B104,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk50e4coef.txt   /share/flink/tmp/freqs/twosk50e4coeffreq.txt</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B100,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B101),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 50  40 0.00010 /share/flink/tmp/twosk50e4coef.txt</v>
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <f>POWER(0.1,B104)</f>
+        <v>1.0000000000000005E-4</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B103,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B104),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C101,0)&amp;"k"&amp;TEXT(B103,0)&amp;"e"&amp;TEXT(B104,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 50  40 0.00010 /share/flink/tmp/twosk50e4coef.txt</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>14</v>
       </c>
-      <c r="B105">
-        <v>613990735498</v>
-      </c>
-      <c r="E105" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C98,0)&amp;"k"&amp;TEXT(B100,0)&amp;"e"&amp;TEXT(B101,0)&amp;"sse.txt "</f>
+      <c r="B108">
+        <v>677236975730</v>
+      </c>
+      <c r="E108" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C101,0)&amp;"k"&amp;TEXT(B103,0)&amp;"e"&amp;TEXT(B104,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C101,0)&amp;"k"&amp;TEXT(B103,0)&amp;"e"&amp;TEXT(B104,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk50e4coeffreq.txt  /share/flink/tmp/twosk50e4sse.txt </v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
-        <v>65</v>
-      </c>
-      <c r="D117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <v>40</v>
-      </c>
-      <c r="D118" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e1coef.txt   /share/flink/tmp/freqs/twosk30e1coeffreq.txt</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119">
-        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <f>POWER(0.1,B120)</f>
-        <v>0.1</v>
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="D121" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C120,0)&amp;"k"&amp;TEXT(B122,0)&amp;"e"&amp;TEXT(B123,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C120,0)&amp;"k"&amp;TEXT(B122,0)&amp;"e"&amp;TEXT(B123,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e1coef.txt   /share/flink/tmp/freqs/twosk30e1coeffreq.txt</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B119,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B120),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 30  40 0.10000 /share/flink/tmp/twosk30e1coef.txt</v>
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" t="s">
-        <v>82</v>
-      </c>
-      <c r="E123" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <f>POWER(0.1,B123)</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B122,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B123),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C120,0)&amp;"k"&amp;TEXT(B122,0)&amp;"e"&amp;TEXT(B123,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.10000 /share/flink/tmp/twosk30e1coef.txt</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>14</v>
       </c>
-      <c r="B124">
-        <v>1.09352701583047E+16</v>
-      </c>
-      <c r="E124" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C117,0)&amp;"k"&amp;TEXT(B119,0)&amp;"e"&amp;TEXT(B120,0)&amp;"sse.txt "</f>
+      <c r="B127">
+        <v>6717756326881670</v>
+      </c>
+      <c r="E127" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C120,0)&amp;"k"&amp;TEXT(B122,0)&amp;"e"&amp;TEXT(B123,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C120,0)&amp;"k"&amp;TEXT(B122,0)&amp;"e"&amp;TEXT(B123,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e1coeffreq.txt  /share/flink/tmp/twosk30e1sse.txt </v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="B137">
+      <c r="B140">
         <v>7</v>
       </c>
-      <c r="C137" t="s">
-        <v>65</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>0</v>
       </c>
-      <c r="B138">
+      <c r="B141">
         <v>40</v>
       </c>
-      <c r="D138" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt"</f>
+      <c r="D141" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C140,0)&amp;"k"&amp;TEXT(B142,0)&amp;"e"&amp;TEXT(B143,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C140,0)&amp;"k"&amp;TEXT(B142,0)&amp;"e"&amp;TEXT(B143,0)&amp;"coeffreq.txt"</f>
         <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e2coef.txt   /share/flink/tmp/freqs/twosk30e2coeffreq.txt</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>4</v>
       </c>
-      <c r="B139">
+      <c r="B142">
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>59</v>
-      </c>
-      <c r="B140">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143">
         <v>2</v>
       </c>
-      <c r="C140">
-        <f>POWER(0.1,B140)</f>
+      <c r="C143">
+        <f>POWER(0.1,B143)</f>
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>2</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B144" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>1</v>
       </c>
-      <c r="B142" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B139,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B140),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coef.txt"</f>
+      <c r="B145" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B142,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B143),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C140,0)&amp;"k"&amp;TEXT(B142,0)&amp;"e"&amp;TEXT(B143,0)&amp;"coef.txt"</f>
         <v>/share/flink/tmp/dataset245.txt 30  40 0.01000 /share/flink/tmp/twosk30e2coef.txt</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>10</v>
       </c>
-      <c r="B143" t="s">
-        <v>78</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="C146" t="s">
+        <v>90</v>
+      </c>
+      <c r="E146" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>14</v>
       </c>
-      <c r="B144">
-        <v>71407816464769</v>
-      </c>
-      <c r="E144" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C137,0)&amp;"k"&amp;TEXT(B139,0)&amp;"e"&amp;TEXT(B140,0)&amp;"sse.txt "</f>
+      <c r="C147">
+        <v>69664189857111</v>
+      </c>
+      <c r="E147" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C140,0)&amp;"k"&amp;TEXT(B142,0)&amp;"e"&amp;TEXT(B143,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C140,0)&amp;"k"&amp;TEXT(B142,0)&amp;"e"&amp;TEXT(B143,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e2coeffreq.txt  /share/flink/tmp/twosk30e2sse.txt </v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>9</v>
       </c>
-      <c r="B157">
+      <c r="B160">
         <v>8</v>
       </c>
-      <c r="C157" t="s">
-        <v>65</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158">
-        <v>40</v>
-      </c>
-      <c r="D158" t="str">
-        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e3coef.txt   /share/flink/tmp/freqs/twosk30e3coeffreq.txt</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>59</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-      <c r="C160">
-        <f>POWER(0.1,B160)</f>
-        <v>1.0000000000000002E-3</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>40</v>
+      </c>
+      <c r="D161" t="str">
+        <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C160,0)&amp;"k"&amp;TEXT(B162,0)&amp;"e"&amp;TEXT(B163,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C160,0)&amp;"k"&amp;TEXT(B162,0)&amp;"e"&amp;TEXT(B163,0)&amp;"coeffreq.txt"</f>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e3coef.txt   /share/flink/tmp/freqs/twosk30e3coeffreq.txt</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B162" t="str">
-        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B159,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B160),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 30  40 0.00100 /share/flink/tmp/twosk30e3coef.txt</v>
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" t="s">
-        <v>81</v>
-      </c>
-      <c r="E163" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <f>POWER(0.1,B163)</f>
+        <v>1.0000000000000002E-3</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="str">
+        <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B162,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B163),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C160,0)&amp;"k"&amp;TEXT(B162,0)&amp;"e"&amp;TEXT(B163,0)&amp;"coef.txt"</f>
+        <v>/share/flink/tmp/dataset245.txt 30  40 0.00100 /share/flink/tmp/twosk30e3coef.txt</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>91</v>
+      </c>
+      <c r="E166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>14</v>
       </c>
-      <c r="B164">
-        <v>1807026300605</v>
-      </c>
-      <c r="E164" t="str">
-        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C157,0)&amp;"k"&amp;TEXT(B159,0)&amp;"e"&amp;TEXT(B160,0)&amp;"sse.txt "</f>
+      <c r="E167" t="str">
+        <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C160,0)&amp;"k"&amp;TEXT(B162,0)&amp;"e"&amp;TEXT(B163,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C160,0)&amp;"k"&amp;TEXT(B162,0)&amp;"e"&amp;TEXT(B163,0)&amp;"sse.txt "</f>
         <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e3coeffreq.txt  /share/flink/tmp/twosk30e3sse.txt </v>
       </c>
     </row>
@@ -10255,7 +10304,7 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -10270,7 +10319,7 @@
       </c>
       <c r="D179" t="str">
         <f>"java -jar -Xmx40000m wavelet.jar /share/flink/tmp/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coef.txt   /share/flink/tmp/freqs/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coeffreq.txt"</f>
-        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk30e5coef.txt   /share/flink/tmp/freqs/twosk30e5coeffreq.txt</v>
+        <v>java -jar -Xmx40000m wavelet.jar /share/flink/tmp/twosk10000e4coef.txt   /share/flink/tmp/freqs/twosk10000e4coeffreq.txt</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -10278,19 +10327,19 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>30</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181">
         <f>POWER(0.1,B181)</f>
-        <v>1.0000000000000006E-5</v>
+        <v>1.0000000000000005E-4</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -10307,13 +10356,16 @@
       </c>
       <c r="B183" t="str">
         <f>"/share/flink/tmp/dataset245.txt "&amp;TEXT(B180,0)&amp;"  40 "&amp;TEXT(POWER(0.1,B181),"0.00000")&amp;" /share/flink/tmp/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coef.txt"</f>
-        <v>/share/flink/tmp/dataset245.txt 30  40 0.00001 /share/flink/tmp/twosk30e5coef.txt</v>
+        <v>/share/flink/tmp/dataset245.txt 10000  40 0.00010 /share/flink/tmp/twosk10000e4coef.txt</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>10</v>
       </c>
+      <c r="B184" t="s">
+        <v>84</v>
+      </c>
       <c r="E184" t="s">
         <v>25</v>
       </c>
@@ -10322,9 +10374,12 @@
       <c r="A185" t="s">
         <v>14</v>
       </c>
+      <c r="B185">
+        <v>2786628320158</v>
+      </c>
       <c r="E185" t="str">
         <f>"/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"coeffreq.txt  /share/flink/tmp/"&amp;TEXT(C178,0)&amp;"k"&amp;TEXT(B180,0)&amp;"e"&amp;TEXT(B181,0)&amp;"sse.txt "</f>
-        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk30e5coeffreq.txt  /share/flink/tmp/twosk30e5sse.txt </v>
+        <v xml:space="preserve">/share/flink/tmp/freqs/dataset245freq.txt /share/flink/tmp/freqs/twosk10000e4coeffreq.txt  /share/flink/tmp/twosk10000e4sse.txt </v>
       </c>
     </row>
   </sheetData>
